--- a/Descargas/R15_Juzgado De Garantia De Antofagasta_Terminos Por Rol_2018-Febrero.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Antofagasta_Terminos Por Rol_2018-Febrero.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>423</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -332,7 +332,7 @@
         </is>
       </c>
       <c r="C9" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -347,7 +347,7 @@
         </is>
       </c>
       <c r="C10" s="65">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -362,7 +362,7 @@
         </is>
       </c>
       <c r="C11" s="65">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -377,7 +377,7 @@
         </is>
       </c>
       <c r="C12" s="65">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13">
@@ -388,11 +388,11 @@
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+          <t xml:space="preserve">Desistimiento Querella.</t>
         </is>
       </c>
       <c r="C13" s="65">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -403,11 +403,26 @@
       </c>
       <c t="inlineStr" r="B14">
         <is>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+        </is>
+      </c>
+      <c r="C14" s="65">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">Juzgado De Garantía De Antofagasta.</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
           <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
-      <c r="C14" s="65">
-        <v>200</v>
+      <c r="C15" s="65">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
